--- a/OTROS/OFICINA.xlsx
+++ b/OTROS/OFICINA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOAN\Desktop\ICTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOAN\Desktop\ICTE\csv\OTROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC898773-E2C9-47C4-9517-B50D02ED1D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A2183B-6CE5-4FAC-9D9D-59DE3BB1FBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31ECC395-1D7F-40D0-86F7-B41F469E3BFC}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B1329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
